--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8775474af38bcd54/Desktop/anul3/VVSS/VVSS-labs/Docs/Lab01/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_7791EF14C91B5AEA3FBE60D92C7B2B6EEF49B2DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2676F940-968D-40E4-ADA7-71E257ADEDDA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" tabRatio="650" activeTab="3"/>
+    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" tabRatio="650" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -12,12 +18,25 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -116,19 +135,50 @@
   </si>
   <si>
     <t>Effort to perform tool-based code analysis (hours):</t>
+  </si>
+  <si>
+    <t>Molnar Noemi-Eveline</t>
+  </si>
+  <si>
+    <t>Marian Daria-Georgiana</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>Nu există mențiuni despre inițializarea stării sistemului, cum ar fi încărcarea inițială a meniului din fișierul text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerințele nu specifică modul în care informațiile despre meniul de pizza sunt încărcate în sistem sau cum este gestionată starea mesei </t>
+  </si>
+  <si>
+    <t>Funcțiile sunt menționate în mare, dar fără detalii suficiente despre parametri, procese sau rezultatele așteptate. Nu există claritate în ceea ce privește interacțiunile dintre funcțiile sistemului.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,77 +352,77 @@
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,14 +433,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -428,7 +481,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -500,7 +553,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -673,7 +726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
@@ -683,95 +736,95 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.86328125" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.3984375" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.86328125" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.41796875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.89453125" style="6"/>
+    <col min="10" max="10" width="14.3984375" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.86328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="24" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="18" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="14" t="s">
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="H4" s="18" t="s">
+      <c r="E4" s="24"/>
+      <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="14" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="H5" s="18" t="s">
+      <c r="E5" s="26"/>
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -781,11 +834,11 @@
       <c r="D9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -793,7 +846,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -802,7 +855,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
@@ -811,7 +864,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -820,7 +873,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -829,7 +882,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -838,7 +891,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -847,7 +900,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -856,86 +909,83 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C27" s="12" t="s">
+      <c r="E25" s="15"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1"/>
     </row>
   </sheetData>
@@ -953,104 +1003,112 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="22.05078125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.86328125" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.3984375" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.86328125" style="6"/>
+    <col min="9" max="9" width="22.06640625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.86328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="24" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="18" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="17">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="H4" s="18" t="s">
+      <c r="E4" s="27"/>
+      <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="H5" s="18" t="s">
+      <c r="E5" s="29"/>
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1064,33 +1122,45 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1099,7 +1169,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1108,7 +1178,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1117,7 +1187,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1126,7 +1196,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1135,7 +1205,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1144,7 +1214,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1153,7 +1223,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1162,7 +1232,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1171,7 +1241,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1180,7 +1250,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1189,7 +1259,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1198,7 +1268,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1207,7 +1277,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1216,15 +1286,14 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" s="12" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1241,105 +1310,113 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="26.734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="5" max="5" width="41.3984375" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.86328125" style="6"/>
+    <col min="9" max="9" width="26.73046875" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.86328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="24" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="18" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="17" t="s">
+      <c r="I3" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="17">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="H4" s="18" t="s">
+      <c r="E4" s="30"/>
+      <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="17" t="s">
+      <c r="I4" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="H5" s="18" t="s">
+      <c r="E5" s="32"/>
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1353,7 +1430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1361,7 +1438,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1370,7 +1447,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1379,7 +1456,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1388,7 +1465,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1397,7 +1474,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1406,7 +1483,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1415,7 +1492,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1424,7 +1501,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1433,7 +1510,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1442,7 +1519,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1451,7 +1528,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1460,7 +1537,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1469,7 +1546,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1478,7 +1555,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1487,7 +1564,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1496,7 +1573,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1505,7 +1582,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1514,7 +1591,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1523,7 +1600,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1532,7 +1609,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1541,14 +1618,11 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="12" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="13"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="1"/>
     </row>
   </sheetData>
@@ -1566,96 +1640,104 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.9453125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.62890625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="26.734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="5" max="5" width="23.9296875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.86328125" style="6"/>
+    <col min="9" max="9" width="26.73046875" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.86328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="24" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="18" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="17" t="s">
+      <c r="I3" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="17">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="H4" s="18" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="H5" s="18" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1672,7 +1754,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1681,7 +1763,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1691,7 +1773,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1701,7 +1783,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1711,7 +1793,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1721,7 +1803,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1731,7 +1813,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1741,7 +1823,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1751,7 +1833,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1761,7 +1843,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1771,7 +1853,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1781,7 +1863,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1791,7 +1873,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1801,7 +1883,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1811,7 +1893,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1821,7 +1903,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1831,7 +1913,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1841,7 +1923,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1851,7 +1933,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1861,7 +1943,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1871,7 +1953,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1881,16 +1963,13 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="34" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C32" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="19"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8775474af38bcd54/Desktop/anul3/VVSS/VVSS-labs/Docs/Lab01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daria\OneDrive\Desktop\VVSS-labs\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_7791EF14C91B5AEA3FBE60D92C7B2B6EEF49B2DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2676F940-968D-40E4-ADA7-71E257ADEDDA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F4FD46-6DA1-44A7-A17B-8F11551B1C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" tabRatio="650" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -19,24 +19,11 @@
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -159,6 +146,30 @@
   </si>
   <si>
     <t>Funcțiile sunt menționate în mare, dar fără detalii suficiente despre parametri, procese sau rezultatele așteptate. Nu există claritate în ceea ce privește interacțiunile dintre funcțiile sistemului.</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>Nu, lipsesc functionalitati precum notificarea chelnerului, gestionarea starilor meselor.</t>
+  </si>
+  <si>
+    <t>Nu include explicit clase sau metode dedicate gestionării erorilor, înregistrării sau managementului excepțiilor.</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nu, lipsesc majoritatea </t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>Dacă structura fișierelor se schimbă sau dacă există erori în datele de intrare, codul actual nu trateaza aceste probleme într-un mod care să împiedice crash-ul aplicației sau erori de runtime. Ar trebui să existe validări ale formatului datelor citite.</t>
   </si>
 </sst>
 </file>
@@ -380,6 +391,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -422,7 +434,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,40 +743,40 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.3984375" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.86328125" style="6"/>
+    <col min="1" max="1" width="8.81640625" style="6"/>
+    <col min="2" max="2" width="12.36328125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.36328125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.36328125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.81640625" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.86328125" style="6"/>
+    <col min="10" max="10" width="14.36328125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -774,57 +785,65 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="17">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="25"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I4" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="27"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -838,33 +857,45 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -873,7 +904,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -882,7 +913,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -891,7 +922,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -900,7 +931,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -909,7 +940,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -918,7 +949,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -927,7 +958,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -936,7 +967,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -945,7 +976,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -954,7 +985,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -963,7 +994,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -972,7 +1003,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -981,12 +1012,14 @@
       <c r="D25" s="3"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C27" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="12"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1009,39 +1042,39 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.3984375" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.86328125" style="6"/>
-    <col min="9" max="9" width="22.06640625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.86328125" style="6"/>
+    <col min="1" max="1" width="8.81640625" style="6"/>
+    <col min="2" max="2" width="12.36328125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.36328125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.36328125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.81640625" style="6"/>
+    <col min="9" max="9" width="22.08984375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1050,65 +1083,65 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="21" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="17">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="28"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="21" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="30"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1122,45 +1155,45 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1169,7 +1202,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1178,7 +1211,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1187,7 +1220,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1196,7 +1229,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1205,7 +1238,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1214,7 +1247,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1223,7 +1256,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1232,7 +1265,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1241,7 +1274,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1250,7 +1283,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1259,7 +1292,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1268,7 +1301,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1277,7 +1310,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1286,7 +1319,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C28" s="11" t="s">
         <v>8</v>
       </c>
@@ -1316,40 +1349,40 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="6"/>
+    <col min="2" max="2" width="12.36328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.3984375" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.86328125" style="6"/>
-    <col min="9" max="9" width="26.73046875" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.86328125" style="6"/>
+    <col min="5" max="5" width="41.36328125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.81640625" style="6"/>
+    <col min="9" max="9" width="26.7265625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1358,65 +1391,65 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="21" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="17">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="21" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="33"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1430,15 +1463,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1447,7 +1484,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1456,7 +1493,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1465,7 +1502,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1474,7 +1511,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1483,7 +1520,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1492,7 +1529,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1501,7 +1538,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1510,7 +1547,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1519,7 +1556,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1528,7 +1565,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1537,7 +1574,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1546,7 +1583,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1555,7 +1592,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1564,7 +1601,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1573,7 +1610,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1582,7 +1619,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1591,7 +1628,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1600,7 +1637,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1609,7 +1646,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1618,7 +1655,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C32" s="11" t="s">
         <v>8</v>
       </c>
@@ -1650,37 +1687,37 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="6"/>
+    <col min="2" max="2" width="12.36328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.9296875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.59765625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.86328125" style="6"/>
-    <col min="9" max="9" width="26.73046875" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.86328125" style="6"/>
+    <col min="5" max="5" width="23.90625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.81640625" style="6"/>
+    <col min="9" max="9" width="26.7265625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1689,55 +1726,55 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="21" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="17">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="21" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1754,7 +1791,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1763,7 +1800,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1773,7 +1810,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1783,7 +1820,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1793,7 +1830,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1803,7 +1840,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1813,7 +1850,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1823,7 +1860,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1833,7 +1870,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1843,7 +1880,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1853,7 +1890,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1863,7 +1900,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1873,7 +1910,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1883,7 +1920,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1893,7 +1930,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1903,7 +1940,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1913,7 +1950,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1923,7 +1960,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1933,7 +1970,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1943,7 +1980,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1953,7 +1990,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1963,12 +2000,12 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C32" s="33" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C32" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
       <c r="F32" s="18"/>
     </row>
   </sheetData>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daria\OneDrive\Desktop\VVSS-labs\Docs\Lab01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8775474af38bcd54/Desktop/anul3/VVSS/VVSS-labs/Docs/Lab01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F4FD46-6DA1-44A7-A17B-8F11551B1C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{99F4FD46-6DA1-44A7-A17B-8F11551B1C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80B598AF-E07D-4100-A9B9-D5F34FD486CA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" tabRatio="650" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -19,11 +19,24 @@
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -169,14 +182,204 @@
     <t>C04</t>
   </si>
   <si>
-    <t>Dacă structura fișierelor se schimbă sau dacă există erori în datele de intrare, codul actual nu trateaza aceste probleme într-un mod care să împiedice crash-ul aplicației sau erori de runtime. Ar trebui să existe validări ale formatului datelor citite.</t>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">gestionarea excepțiilor pentru </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IOException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e.printStackTrace();</t>
+    </r>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>In Kitchen GUI Controller avem un while (true) care ar putea fi inlocuit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Metoda </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getPayment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nu validează formatul datelor din fișier. Dacă linia citită nu respectă formatul așteptat, pot rezulta excepții runtime</t>
+    </r>
+  </si>
+  <si>
+    <t>Dacă structura fișierelDor se schimbă sau dacă există erori în datele de intrare, codul actual nu trateaza aceste probleme într-un mod care să împiedice crash-ul aplicației sau erori de runtime. Ar trebui să existe validări ale formatului datelor citite.</t>
+  </si>
+  <si>
+    <t>OrdersGUIController, 53</t>
+  </si>
+  <si>
+    <t>Make the enclosing method "static" or remove this set.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF56A8F5"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>setTotalAmount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">double </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>totalAmount) {</t>
+    </r>
+  </si>
+  <si>
+    <t>public static ….</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">try </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    br = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>BufferedReader(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>FileReader(file));</t>
+    </r>
+  </si>
+  <si>
+    <t>use try-with-resources</t>
+  </si>
+  <si>
+    <t>MenuRepository</t>
+  </si>
+  <si>
+    <t>Define a constant instead of duplicating this literal "--------------------------" 6 times.</t>
+  </si>
+  <si>
+    <t>PAymentAlert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +463,48 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFCF8E6D"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF56A8F5"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -361,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -434,6 +679,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,6 +705,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -743,23 +1003,23 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="6"/>
-    <col min="2" max="2" width="12.36328125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.36328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.36328125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.81640625" style="6"/>
+    <col min="1" max="1" width="8.796875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.796875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.36328125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.81640625" style="6"/>
+    <col min="10" max="10" width="14.33203125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -770,7 +1030,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10">
       <c r="B2" s="24" t="s">
         <v>19</v>
       </c>
@@ -785,7 +1045,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
@@ -796,7 +1056,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10">
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
@@ -814,7 +1074,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10">
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
@@ -828,7 +1088,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -836,14 +1096,14 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -857,7 +1117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -869,7 +1129,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -882,7 +1142,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
@@ -895,7 +1155,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -904,7 +1164,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -913,7 +1173,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -922,7 +1182,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -931,7 +1191,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -940,7 +1200,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -949,7 +1209,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -958,7 +1218,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -967,7 +1227,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -976,7 +1236,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -985,7 +1245,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -994,7 +1254,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1003,7 +1263,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1012,13 +1272,13 @@
       <c r="D25" s="3"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5">
       <c r="C27" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1042,22 +1302,22 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="6"/>
-    <col min="2" max="2" width="12.36328125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.36328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.36328125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.81640625" style="6"/>
-    <col min="9" max="9" width="22.08984375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="6"/>
+    <col min="1" max="1" width="8.796875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.796875" style="6"/>
+    <col min="9" max="9" width="22.06640625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1068,7 +1328,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10">
       <c r="B2" s="24" t="s">
         <v>18</v>
       </c>
@@ -1083,7 +1343,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
@@ -1094,7 +1354,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1372,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1126,7 +1386,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -1134,14 +1394,14 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1155,7 +1415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1167,7 +1427,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1180,7 +1440,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
@@ -1193,7 +1453,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1202,7 +1462,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1211,7 +1471,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1220,7 +1480,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1229,7 +1489,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1238,7 +1498,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1247,7 +1507,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1256,7 +1516,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1265,7 +1525,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1274,7 +1534,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1283,7 +1543,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1292,7 +1552,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1301,7 +1561,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1310,7 +1570,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1319,13 +1579,13 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5">
       <c r="C28" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1349,23 +1609,23 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="6"/>
-    <col min="2" max="2" width="12.36328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.36328125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.81640625" style="6"/>
-    <col min="9" max="9" width="26.7265625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="6"/>
+    <col min="5" max="5" width="41.33203125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.796875" style="6"/>
+    <col min="9" max="9" width="26.73046875" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1376,7 +1636,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10">
       <c r="B2" s="24" t="s">
         <v>17</v>
       </c>
@@ -1391,7 +1651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
@@ -1402,7 +1662,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10">
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
@@ -1420,7 +1680,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10">
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
@@ -1434,7 +1694,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -1442,14 +1702,14 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1463,7 +1723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1472,37 +1732,51 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E11" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E12" s="36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.5">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1511,7 +1785,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1520,7 +1794,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1529,7 +1803,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1538,7 +1812,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1547,7 +1821,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1556,7 +1830,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1565,7 +1839,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1574,7 +1848,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1583,7 +1857,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1592,7 +1866,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1601,7 +1875,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1610,7 +1884,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1619,7 +1893,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1628,7 +1902,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1637,7 +1911,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1646,7 +1920,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1655,12 +1929,14 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5">
       <c r="C32" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="12"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1683,24 +1959,24 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="6"/>
-    <col min="2" max="2" width="12.36328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.90625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.81640625" style="6"/>
-    <col min="9" max="9" width="26.7265625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="6"/>
+    <col min="1" max="1" width="8.796875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.53125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.796875" style="6"/>
+    <col min="9" max="9" width="26.73046875" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1711,7 +1987,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10">
       <c r="B2" s="24" t="s">
         <v>31</v>
       </c>
@@ -1726,7 +2002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
@@ -1737,7 +2013,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10">
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
@@ -1753,7 +2029,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1765,7 +2041,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
@@ -1774,7 +2050,7 @@
       <c r="E6" s="22"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1791,36 +2067,56 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="35.65" customHeight="1">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="39.4" customHeight="1">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>59</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="38.65" customHeight="1">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>60</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1830,7 +2126,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1840,7 +2136,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1850,7 +2146,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1860,7 +2156,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1870,7 +2166,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1880,7 +2176,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1890,7 +2186,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1900,7 +2196,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1910,7 +2206,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1920,7 +2216,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1930,7 +2226,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1940,7 +2236,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1950,7 +2246,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1960,7 +2256,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1970,7 +2266,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1980,7 +2276,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1990,7 +2286,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2000,7 +2296,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6">
       <c r="C32" s="34" t="s">
         <v>32</v>
       </c>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8775474af38bcd54/Desktop/anul3/VVSS/VVSS-labs/Docs/Lab01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daria\OneDrive\Desktop\VVSS-labs\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{99F4FD46-6DA1-44A7-A17B-8F11551B1C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80B598AF-E07D-4100-A9B9-D5F34FD486CA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F85A13-0CE8-4B32-8FFE-8DC225A1FD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" tabRatio="650" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="650" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -19,24 +19,11 @@
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -179,83 +166,16 @@
     <t xml:space="preserve">Nu, lipsesc majoritatea </t>
   </si>
   <si>
-    <t>C04</t>
-  </si>
-  <si>
     <t>C08</t>
   </si>
   <si>
     <t>C06</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">gestionarea excepțiilor pentru </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IOException</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> cu </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>e.printStackTrace();</t>
-    </r>
-  </si>
-  <si>
     <t>C03</t>
   </si>
   <si>
     <t>In Kitchen GUI Controller avem un while (true) care ar putea fi inlocuit</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Metoda </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getPayment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> nu validează formatul datelor din fișier. Dacă linia citită nu respectă formatul așteptat, pot rezulta excepții runtime</t>
-    </r>
-  </si>
-  <si>
-    <t>Dacă structura fișierelDor se schimbă sau dacă există erori în datele de intrare, codul actual nu trateaza aceste probleme într-un mod care să împiedice crash-ul aplicației sau erori de runtime. Ar trebui să existe validări ale formatului datelor citite.</t>
   </si>
   <si>
     <t>OrdersGUIController, 53</t>
@@ -374,12 +294,30 @@
   <si>
     <t>PAymentAlert</t>
   </si>
+  <si>
+    <t>Gestionarea excepțiilor pentru IOException cu e.printStackTrace();</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Metoda </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getPayment nu validează formatul datelor din fișier. Dacă linia citită nu respectă formatul așteptat, pot rezulta excepții runtime</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,30 +403,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9.8000000000000007"/>
       <color rgb="FFBCBEC4"/>
       <name val="JetBrains Mono"/>
@@ -505,6 +419,13 @@
       <color rgb="FF56A8F5"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -606,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -637,6 +558,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -678,17 +608,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1003,40 +922,40 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.796875" style="6"/>
+    <col min="1" max="1" width="8.81640625" style="6"/>
+    <col min="2" max="2" width="12.36328125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.36328125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.36328125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.81640625" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.796875" style="6"/>
+    <col min="10" max="10" width="14.36328125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" spans="1:10" ht="15.5">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1060,10 +979,10 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="28"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1078,10 +997,10 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="30"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1093,15 +1012,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1117,7 +1036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="43.5">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1125,11 +1044,11 @@
         <v>36</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="43.5">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1138,11 +1057,11 @@
         <v>35</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="72.5">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
@@ -1151,7 +1070,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1302,39 +1221,39 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.796875" style="6"/>
-    <col min="9" max="9" width="22.06640625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="6"/>
+    <col min="1" max="1" width="8.81640625" style="6"/>
+    <col min="2" max="2" width="12.36328125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.36328125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.36328125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.81640625" style="6"/>
+    <col min="9" max="9" width="22.08984375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" spans="1:10" ht="15.5">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1358,10 +1277,10 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="31"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1376,10 +1295,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="33"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1391,15 +1310,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1415,7 +1334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="43.5">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1423,11 +1342,11 @@
         <v>41</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="29">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1436,7 +1355,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1607,42 +1526,42 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="6"/>
+    <col min="2" max="2" width="12.36328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.796875" style="6"/>
-    <col min="9" max="9" width="26.73046875" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="6"/>
+    <col min="5" max="5" width="41.36328125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.81640625" style="6"/>
+    <col min="9" max="9" width="26.7265625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" spans="1:10" ht="15.5">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1666,10 +1585,10 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="34"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1684,10 +1603,10 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="36"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1699,15 +1618,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1723,63 +1642,59 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="29">
       <c r="B10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="D10" s="1"/>
+      <c r="E10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:10" ht="43.5">
       <c r="B11" s="3">
-        <f>B10+1</f>
-        <v>2</v>
+        <f t="shared" ref="B11:B29" si="0">B10+1</f>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="E11" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="29">
       <c r="B12" s="3">
-        <f t="shared" ref="B12:B30" si="0">B11+1</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="28.5">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
@@ -1788,7 +1703,7 @@
     <row r="15" spans="1:10">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
@@ -1797,7 +1712,7 @@
     <row r="16" spans="1:10">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
@@ -1806,7 +1721,7 @@
     <row r="17" spans="2:5">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
@@ -1815,43 +1730,43 @@
     <row r="18" spans="2:5">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
@@ -1860,7 +1775,7 @@
     <row r="23" spans="2:5">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
@@ -1869,7 +1784,7 @@
     <row r="24" spans="2:5">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
@@ -1878,34 +1793,34 @@
     <row r="25" spans="2:5">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
@@ -1914,27 +1829,18 @@
     <row r="29" spans="2:5">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="C32" s="11" t="s">
+    <row r="31" spans="2:5">
+      <c r="C31" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="1">
+      <c r="D31" s="12"/>
+      <c r="E31" s="1">
         <v>0.5</v>
       </c>
     </row>
@@ -1959,41 +1865,41 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.53125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.1328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.59765625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.796875" style="6"/>
-    <col min="9" max="9" width="26.73046875" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="6"/>
+    <col min="1" max="1" width="8.81640625" style="6"/>
+    <col min="2" max="2" width="12.36328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.81640625" style="6"/>
+    <col min="9" max="9" width="26.7265625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" spans="1:10" ht="15.5">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -2017,8 +1923,8 @@
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -2033,8 +1939,8 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -2046,8 +1952,8 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10">
@@ -2072,16 +1978,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="39.4" customHeight="1">
@@ -2090,13 +1996,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -2106,13 +2012,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="40" t="s">
         <v>60</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -2297,11 +2203,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
       <c r="F32" s="18"/>
     </row>
   </sheetData>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daria\OneDrive\Desktop\VVSS-labs\Docs\Lab01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8775474af38bcd54/Desktop/anul3/VVSS/VVSS-labs/Docs/Lab01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F85A13-0CE8-4B32-8FFE-8DC225A1FD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{D8F85A13-0CE8-4B32-8FFE-8DC225A1FD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88A72937-111E-4360-9414-85EC777594F8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="650" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" tabRatio="650" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -19,11 +19,24 @@
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -130,33 +143,15 @@
     <t>Marian Daria-Georgiana</t>
   </si>
   <si>
-    <t>R01</t>
-  </si>
-  <si>
     <t>R04</t>
   </si>
   <si>
-    <t>R05</t>
-  </si>
-  <si>
     <t>Nu există mențiuni despre inițializarea stării sistemului, cum ar fi încărcarea inițială a meniului din fișierul text</t>
   </si>
   <si>
-    <t xml:space="preserve">Cerințele nu specifică modul în care informațiile despre meniul de pizza sunt încărcate în sistem sau cum este gestionată starea mesei </t>
-  </si>
-  <si>
-    <t>Funcțiile sunt menționate în mare, dar fără detalii suficiente despre parametri, procese sau rezultatele așteptate. Nu există claritate în ceea ce privește interacțiunile dintre funcțiile sistemului.</t>
-  </si>
-  <si>
     <t>A05</t>
   </si>
   <si>
-    <t>A03</t>
-  </si>
-  <si>
-    <t>Nu, lipsesc functionalitati precum notificarea chelnerului, gestionarea starilor meselor.</t>
-  </si>
-  <si>
     <t>Nu include explicit clase sau metode dedicate gestionării erorilor, înregistrării sau managementului excepțiilor.</t>
   </si>
   <si>
@@ -170,12 +165,6 @@
   </si>
   <si>
     <t>C06</t>
-  </si>
-  <si>
-    <t>C03</t>
-  </si>
-  <si>
-    <t>In Kitchen GUI Controller avem un while (true) care ar putea fi inlocuit</t>
   </si>
   <si>
     <t>OrdersGUIController, 53</t>
@@ -242,82 +231,73 @@
     </r>
   </si>
   <si>
+    <t>use try-with-resources</t>
+  </si>
+  <si>
+    <t>MenuRepository</t>
+  </si>
+  <si>
+    <t>Gestionarea excepțiilor pentru IOException cu e.printStackTrace();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> try-with-resources</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>Descrierea aplicației nu include cerințe privind gestionarea erorilor</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">    br = </t>
+      <t xml:space="preserve">Codul nu validează datele de intrare pentru </t>
     </r>
     <r>
       <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFCF8E6D"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">new </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBCBEC4"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>BufferedReader(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFCF8E6D"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">new </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBCBEC4"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>FileReader(file));</t>
-    </r>
-  </si>
-  <si>
-    <t>use try-with-resources</t>
-  </si>
-  <si>
-    <t>MenuRepository</t>
-  </si>
-  <si>
-    <t>Define a constant instead of duplicating this literal "--------------------------" 6 times.</t>
-  </si>
-  <si>
-    <t>PAymentAlert</t>
-  </si>
-  <si>
-    <t>Gestionarea excepțiilor pentru IOException cu e.printStackTrace();</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Metoda </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>getPayment nu validează formatul datelor din fișier. Dacă linia citită nu respectă formatul așteptat, pot rezulta excepții runtime</t>
+      <t>orderQuantity.getValue()</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> înainte de utilizarea acestuia, ceea ce ar putea duce la o </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NullPointerException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dacă nu este selectată nicio valoare.</t>
+    </r>
+  </si>
+  <si>
+    <t>OrdersGUIController; 143</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,7 +401,19 @@
       <family val="3"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -527,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -560,12 +552,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -609,6 +595,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,10 +620,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -922,40 +914,40 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="6"/>
-    <col min="2" max="2" width="12.36328125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.36328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.36328125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.81640625" style="6"/>
+    <col min="1" max="1" width="8.796875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.796875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.36328125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.81640625" style="6"/>
+    <col min="10" max="10" width="14.33203125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5">
+    <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -979,10 +971,10 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="26"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -997,10 +989,10 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="28"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1012,15 +1004,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1036,43 +1028,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="43.5">
+    <row r="10" spans="1:10" ht="42.75">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="43.5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.5">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="72.5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="3">
@@ -1221,39 +1209,39 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="6"/>
-    <col min="2" max="2" width="12.36328125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.36328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.36328125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.81640625" style="6"/>
-    <col min="9" max="9" width="22.08984375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="6"/>
+    <col min="1" max="1" width="8.796875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.796875" style="6"/>
+    <col min="9" max="9" width="22.06640625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5">
+    <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1277,10 +1265,10 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="29"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1295,10 +1283,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="31"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1310,15 +1298,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1334,29 +1322,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="43.5">
+    <row r="10" spans="1:10" ht="42.75">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="29">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>43</v>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1364,13 +1352,9 @@
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="3">
@@ -1528,40 +1512,40 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="6"/>
-    <col min="2" max="2" width="12.36328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.36328125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.81640625" style="6"/>
-    <col min="9" max="9" width="26.7265625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="6"/>
+    <col min="5" max="5" width="41.33203125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.796875" style="6"/>
+    <col min="9" max="9" width="26.73046875" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5">
+    <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1585,10 +1569,10 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="34"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1603,10 +1587,10 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="36"/>
+      <c r="E5" s="34"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1618,15 +1602,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1642,45 +1626,43 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="29">
+    <row r="10" spans="1:10" ht="28.5">
       <c r="B10" s="3">
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:10" ht="43.5">
+    <row r="11" spans="1:10">
       <c r="B11" s="3">
         <f t="shared" ref="B11:B29" si="0">B10+1</f>
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="29">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="3">
@@ -1866,40 +1848,40 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="6"/>
-    <col min="2" max="2" width="12.36328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.08984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.81640625" style="6"/>
-    <col min="9" max="9" width="26.7265625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="6"/>
+    <col min="1" max="1" width="8.796875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.53125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.06640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.796875" style="6"/>
+    <col min="9" max="9" width="26.73046875" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5">
+    <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1923,8 +1905,8 @@
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1939,8 +1921,8 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1952,8 +1934,8 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10">
@@ -1978,16 +1960,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>45</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="39.4" customHeight="1">
@@ -1996,30 +1978,26 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="38.65" customHeight="1">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>56</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:10">
@@ -2203,11 +2181,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="18"/>
     </row>
   </sheetData>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8775474af38bcd54/Desktop/anul3/VVSS/VVSS-labs/Docs/Lab01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daria\OneDrive\Desktop\VVSS-labs\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{D8F85A13-0CE8-4B32-8FFE-8DC225A1FD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88A72937-111E-4360-9414-85EC777594F8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4FEFE3-1635-4D84-A969-6503510124C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" tabRatio="650" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -19,24 +19,11 @@
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="72">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -132,9 +119,6 @@
   </si>
   <si>
     <t>Tool-based Code Analysis</t>
-  </si>
-  <si>
-    <t>Effort to perform tool-based code analysis (hours):</t>
   </si>
   <si>
     <t>Molnar Noemi-Eveline</t>
@@ -292,12 +276,69 @@
   <si>
     <t>OrdersGUIController; 143</t>
   </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>Nu, lipsesc functionalitati precum notificarea chelnerului, gestionarea starilor meselor.</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>Funcțiile sunt menționate în mare, dar fără detalii suficiente despre parametri, procese sau rezultatele așteptate. Nu există claritate în ceea ce privește interacțiunile dintre funcțiile sistemului.</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>In Kitchen GUI Controller avem un while (true) care ar putea fi inlocuit</t>
+  </si>
+  <si>
+    <t>OrdersGUIController, 67</t>
+  </si>
+  <si>
+    <t>Methods should not be empty</t>
+  </si>
+  <si>
+    <t>public OrdersGUIController(){ }</t>
+  </si>
+  <si>
+    <t>OrdersGUIController, 27</t>
+  </si>
+  <si>
+    <t>Raw types should not be used</t>
+  </si>
+  <si>
+    <t>private TableView orderTable;</t>
+  </si>
+  <si>
+    <t>MenuRepository,19</t>
+  </si>
+  <si>
+    <t>Sections of code should not be commented out</t>
+  </si>
+  <si>
+    <t>//ClassLoader classLoader = MenuRepository.class.getClassLoader();</t>
+  </si>
+  <si>
+    <t>public void shouldNotBeEmpty() {  // Noncompliant - method is empty
+}
+public void notImplemented() {  // Noncompliant - method is empty
+}
+@Override
+public void emptyOnPurpose() {  // Noncompliant - method is empty
+}</t>
+  </si>
+  <si>
+    <t>Effort to perform tool-based code analysis (hours): 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,12 +454,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -519,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -550,9 +585,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -583,6 +616,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -595,16 +631,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -914,23 +961,23 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.796875" style="6"/>
+    <col min="1" max="1" width="8.81640625" style="6"/>
+    <col min="2" max="2" width="12.36328125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.36328125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.36328125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.81640625" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.796875" style="6"/>
+    <col min="10" max="10" width="14.36328125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" spans="1:10" ht="15.5">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -961,7 +1008,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" s="17">
         <v>234</v>
@@ -979,7 +1026,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="3">
         <v>234</v>
@@ -1028,39 +1075,43 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="42.75">
+    <row r="10" spans="1:10" ht="43.5">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="28.5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="29">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="72.5">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="3">
@@ -1209,22 +1260,22 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.796875" style="6"/>
-    <col min="9" max="9" width="22.06640625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="6"/>
+    <col min="1" max="1" width="8.81640625" style="6"/>
+    <col min="2" max="2" width="12.36328125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.36328125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.36328125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.81640625" style="6"/>
+    <col min="9" max="9" width="22.08984375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" spans="1:10" ht="15.5">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1255,7 +1306,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" s="17">
         <v>234</v>
@@ -1273,7 +1324,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="3">
         <v>234</v>
@@ -1322,16 +1373,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="42.75">
+    <row r="10" spans="1:10" ht="43.5">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1340,21 +1391,25 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="29">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="C12" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="3">
@@ -1512,23 +1567,23 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.796875" style="6"/>
-    <col min="9" max="9" width="26.73046875" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="6"/>
+    <col min="1" max="1" width="8.81640625" style="6"/>
+    <col min="2" max="2" width="12.36328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.36328125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.81640625" style="6"/>
+    <col min="9" max="9" width="26.7265625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" spans="1:10" ht="15.5">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1540,12 +1595,12 @@
       <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1559,7 +1614,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" s="17">
         <v>234</v>
@@ -1577,7 +1632,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="3">
         <v>234</v>
@@ -1587,10 +1642,10 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="35"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1626,16 +1681,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.5">
+    <row r="10" spans="1:10" ht="29">
       <c r="B10" s="3">
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
@@ -1646,23 +1701,27 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="40" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="E11" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="29">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="3">
@@ -1845,26 +1904,26 @@
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.53125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.06640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.59765625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.796875" style="6"/>
-    <col min="9" max="9" width="26.73046875" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="6"/>
+    <col min="1" max="1" width="8.81640625" style="6"/>
+    <col min="2" max="2" width="12.36328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.81640625" style="6"/>
+    <col min="9" max="9" width="26.7265625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" spans="1:10" ht="15.5">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1895,7 +1954,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" s="17">
         <v>234</v>
@@ -1911,7 +1970,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="3">
         <v>234</v>
@@ -1959,17 +2018,17 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="E10" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="F10" s="43" t="s">
         <v>45</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="39.4" customHeight="1">
@@ -1977,48 +2036,68 @@
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="D11" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="38.65" customHeight="1">
-      <c r="B12" s="3">
-        <f t="shared" ref="B12:B30" si="0">B11+1</f>
+      <c r="E11" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="246.5">
+      <c r="B12" s="46">
+        <f>B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="2"/>
+      <c r="C12" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="3">
-        <f t="shared" si="0"/>
+        <f>B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B14:B22" si="0">B13+1</f>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="3">
@@ -2056,7 +2135,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
@@ -2066,9 +2145,9 @@
         <v>10</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="3">
@@ -2086,7 +2165,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
@@ -2100,97 +2179,17 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="3">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="3">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="3">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="C32" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="18"/>
+      <c r="C24" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C24:E24"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="D4:E4"/>
